--- a/TIND_ToCleanUp.xlsx
+++ b/TIND_ToCleanUp.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\JOConnor\gitHub\cmLibrary\tindMigration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joconnor\github\TIND-Migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RSCR Image Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Doughboys" sheetId="2" r:id="rId2"/>
     <sheet name="Gold Star Families" sheetId="3" r:id="rId3"/>
+    <sheet name="March For Our Lives" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>TIND Record ID</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Dawkins, Williw (Photo).jpg</t>
+  </si>
+  <si>
+    <t>MFOL_2018_44.jpg</t>
+  </si>
+  <si>
+    <t>Note: none of these images have names and the descriptions are not adequate. They should, at the very least, describe the sign and the text</t>
   </si>
 </sst>
 </file>
@@ -183,10 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,8 +482,8 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1224,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1294,4 +1304,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>